--- a/ORA_OTTO.xlsx
+++ b/ORA_OTTO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1317 +434,1245 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Cultivo</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cultivo</t>
+          <t>Campaña</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Campaña</t>
+          <t>Provincia</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Provincia</t>
+          <t>Departamento</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Departamento</t>
+          <t>idProvincia</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>idProvincia</t>
+          <t>idDepartamento</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>idDepartamento</t>
+          <t>Sup. Sembrada</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Sup. Sembrada</t>
+          <t>Sup. Cosechada</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sup. Cosechada</t>
+          <t>Producción</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Producción</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Rinde2</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Rinde2</t>
+          <t>Prom/Rinde2</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Prom/Rinde2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
           <t>Apartamiento</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2000/01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2000/01</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>82</v>
       </c>
       <c r="F2" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>42</v>
+        <v>338100</v>
       </c>
       <c r="H2" t="n">
         <v>338100</v>
       </c>
       <c r="I2" t="n">
-        <v>338100</v>
+        <v>1078500</v>
       </c>
       <c r="J2" t="n">
-        <v>1078500</v>
+        <v>3190</v>
       </c>
       <c r="K2" t="n">
         <v>3190</v>
       </c>
       <c r="L2" t="n">
-        <v>3190</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M2" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N2" t="n">
         <v>-293.7916666666665</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2001/02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2001/02</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>82</v>
       </c>
       <c r="F3" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>42</v>
+        <v>380000</v>
       </c>
       <c r="H3" t="n">
-        <v>380000</v>
+        <v>376500</v>
       </c>
       <c r="I3" t="n">
-        <v>376500</v>
+        <v>1300000</v>
       </c>
       <c r="J3" t="n">
-        <v>1300000</v>
+        <v>3453</v>
       </c>
       <c r="K3" t="n">
-        <v>3453</v>
+        <v>3421</v>
       </c>
       <c r="L3" t="n">
-        <v>3421</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M3" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N3" t="n">
         <v>-62.79166666666652</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2002/03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2002/03</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>82</v>
       </c>
       <c r="F4" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>42</v>
+        <v>459000</v>
       </c>
       <c r="H4" t="n">
-        <v>459000</v>
+        <v>447000</v>
       </c>
       <c r="I4" t="n">
-        <v>447000</v>
+        <v>1631550</v>
       </c>
       <c r="J4" t="n">
-        <v>1631550</v>
+        <v>3650</v>
       </c>
       <c r="K4" t="n">
-        <v>3650</v>
+        <v>3555</v>
       </c>
       <c r="L4" t="n">
-        <v>3555</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M4" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N4" t="n">
         <v>71.20833333333348</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2003/04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2003/04</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>82</v>
       </c>
       <c r="F5" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>42</v>
+        <v>541800</v>
       </c>
       <c r="H5" t="n">
         <v>541800</v>
       </c>
       <c r="I5" t="n">
-        <v>541800</v>
+        <v>1757104</v>
       </c>
       <c r="J5" t="n">
-        <v>1757104</v>
+        <v>3243</v>
       </c>
       <c r="K5" t="n">
         <v>3243</v>
       </c>
       <c r="L5" t="n">
-        <v>3243</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M5" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N5" t="n">
         <v>-240.7916666666665</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2004/05</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2004/05</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>82</v>
       </c>
       <c r="F6" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G6" t="n">
-        <v>42</v>
+        <v>515173</v>
       </c>
       <c r="H6" t="n">
-        <v>515173</v>
+        <v>513052</v>
       </c>
       <c r="I6" t="n">
-        <v>513052</v>
+        <v>1959859</v>
       </c>
       <c r="J6" t="n">
-        <v>1959859</v>
+        <v>3820</v>
       </c>
       <c r="K6" t="n">
-        <v>3820</v>
+        <v>3804</v>
       </c>
       <c r="L6" t="n">
-        <v>3804</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M6" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N6" t="n">
         <v>320.2083333333335</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2005/06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2005/06</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>82</v>
       </c>
       <c r="F7" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G7" t="n">
-        <v>42</v>
+        <v>525800</v>
       </c>
       <c r="H7" t="n">
-        <v>525800</v>
+        <v>518492</v>
       </c>
       <c r="I7" t="n">
-        <v>518492</v>
+        <v>1976442</v>
       </c>
       <c r="J7" t="n">
-        <v>1976442</v>
+        <v>3812</v>
       </c>
       <c r="K7" t="n">
-        <v>3812</v>
+        <v>3759</v>
       </c>
       <c r="L7" t="n">
-        <v>3759</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M7" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N7" t="n">
         <v>275.2083333333335</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2006/07</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2006/07</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>82</v>
       </c>
       <c r="F8" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G8" t="n">
-        <v>42</v>
+        <v>518800</v>
       </c>
       <c r="H8" t="n">
-        <v>518800</v>
+        <v>505405</v>
       </c>
       <c r="I8" t="n">
-        <v>505405</v>
+        <v>1917029</v>
       </c>
       <c r="J8" t="n">
-        <v>1917029</v>
+        <v>3793</v>
       </c>
       <c r="K8" t="n">
-        <v>3793</v>
+        <v>3695</v>
       </c>
       <c r="L8" t="n">
-        <v>3695</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M8" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N8" t="n">
         <v>211.2083333333335</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2007/08</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2007/08</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>82</v>
       </c>
       <c r="F9" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>42</v>
+        <v>516150</v>
       </c>
       <c r="H9" t="n">
         <v>516150</v>
       </c>
       <c r="I9" t="n">
-        <v>516150</v>
+        <v>2092432</v>
       </c>
       <c r="J9" t="n">
-        <v>2092432</v>
+        <v>4054</v>
       </c>
       <c r="K9" t="n">
         <v>4054</v>
       </c>
       <c r="L9" t="n">
-        <v>4054</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M9" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N9" t="n">
         <v>570.2083333333335</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2008/09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2008/09</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>82</v>
       </c>
       <c r="F10" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G10" t="n">
-        <v>42</v>
+        <v>647559</v>
       </c>
       <c r="H10" t="n">
         <v>647559</v>
       </c>
       <c r="I10" t="n">
-        <v>647559</v>
+        <v>1748409</v>
       </c>
       <c r="J10" t="n">
-        <v>1748409</v>
+        <v>2700</v>
       </c>
       <c r="K10" t="n">
         <v>2700</v>
       </c>
       <c r="L10" t="n">
-        <v>2700</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M10" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N10" t="n">
         <v>-783.7916666666665</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2009/10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2009/10</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>82</v>
       </c>
       <c r="F11" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G11" t="n">
-        <v>42</v>
+        <v>581500</v>
       </c>
       <c r="H11" t="n">
         <v>581500</v>
       </c>
       <c r="I11" t="n">
-        <v>581500</v>
+        <v>2151550</v>
       </c>
       <c r="J11" t="n">
-        <v>2151550</v>
+        <v>3700</v>
       </c>
       <c r="K11" t="n">
         <v>3700</v>
       </c>
       <c r="L11" t="n">
-        <v>3700</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M11" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N11" t="n">
         <v>216.2083333333335</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2010/11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2010/11</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>82</v>
       </c>
       <c r="F12" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>42</v>
+        <v>582000</v>
       </c>
       <c r="H12" t="n">
         <v>582000</v>
       </c>
       <c r="I12" t="n">
-        <v>582000</v>
+        <v>2095200</v>
       </c>
       <c r="J12" t="n">
-        <v>2095200</v>
+        <v>3600</v>
       </c>
       <c r="K12" t="n">
         <v>3600</v>
       </c>
       <c r="L12" t="n">
-        <v>3600</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M12" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N12" t="n">
         <v>116.2083333333335</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2011/12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2011/12</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>82</v>
       </c>
       <c r="F13" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G13" t="n">
-        <v>42</v>
+        <v>583000</v>
       </c>
       <c r="H13" t="n">
         <v>583000</v>
       </c>
       <c r="I13" t="n">
-        <v>583000</v>
+        <v>1690700</v>
       </c>
       <c r="J13" t="n">
-        <v>1690700</v>
+        <v>2900</v>
       </c>
       <c r="K13" t="n">
         <v>2900</v>
       </c>
       <c r="L13" t="n">
-        <v>2900</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M13" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N13" t="n">
         <v>-583.7916666666665</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2012/13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2012/13</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>82</v>
       </c>
       <c r="F14" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G14" t="n">
-        <v>42</v>
+        <v>510100</v>
       </c>
       <c r="H14" t="n">
-        <v>510100</v>
+        <v>506600</v>
       </c>
       <c r="I14" t="n">
-        <v>506600</v>
+        <v>1975740</v>
       </c>
       <c r="J14" t="n">
-        <v>1975740</v>
+        <v>3900</v>
       </c>
       <c r="K14" t="n">
-        <v>3900</v>
+        <v>3873</v>
       </c>
       <c r="L14" t="n">
-        <v>3873</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M14" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N14" t="n">
         <v>389.2083333333335</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2013/14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2013/14</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>82</v>
       </c>
       <c r="F15" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G15" t="n">
-        <v>42</v>
+        <v>525000</v>
       </c>
       <c r="H15" t="n">
         <v>525000</v>
       </c>
       <c r="I15" t="n">
-        <v>525000</v>
+        <v>1522500</v>
       </c>
       <c r="J15" t="n">
-        <v>1522500</v>
+        <v>2900</v>
       </c>
       <c r="K15" t="n">
         <v>2900</v>
       </c>
       <c r="L15" t="n">
-        <v>2900</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M15" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N15" t="n">
         <v>-583.7916666666665</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2014/15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2014/15</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>82</v>
       </c>
       <c r="F16" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G16" t="n">
-        <v>42</v>
+        <v>452060</v>
       </c>
       <c r="H16" t="n">
         <v>452060</v>
       </c>
       <c r="I16" t="n">
-        <v>452060</v>
+        <v>1898652</v>
       </c>
       <c r="J16" t="n">
-        <v>1898652</v>
+        <v>4200</v>
       </c>
       <c r="K16" t="n">
         <v>4200</v>
       </c>
       <c r="L16" t="n">
-        <v>4200</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M16" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N16" t="n">
         <v>716.2083333333335</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2015/16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2015/16</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>82</v>
       </c>
       <c r="F17" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G17" t="n">
-        <v>42</v>
+        <v>522253</v>
       </c>
       <c r="H17" t="n">
-        <v>522253</v>
+        <v>485168</v>
       </c>
       <c r="I17" t="n">
-        <v>485168</v>
+        <v>1620461</v>
       </c>
       <c r="J17" t="n">
-        <v>1620461</v>
+        <v>3340</v>
       </c>
       <c r="K17" t="n">
-        <v>3340</v>
+        <v>3103</v>
       </c>
       <c r="L17" t="n">
-        <v>3103</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M17" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N17" t="n">
         <v>-380.7916666666665</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2016/17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2016/17</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>82</v>
       </c>
       <c r="F18" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G18" t="n">
-        <v>42</v>
+        <v>310920</v>
       </c>
       <c r="H18" t="n">
-        <v>310920</v>
+        <v>303920</v>
       </c>
       <c r="I18" t="n">
-        <v>303920</v>
+        <v>1154896</v>
       </c>
       <c r="J18" t="n">
-        <v>1154896</v>
+        <v>3800</v>
       </c>
       <c r="K18" t="n">
-        <v>3800</v>
+        <v>3714</v>
       </c>
       <c r="L18" t="n">
-        <v>3714</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M18" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N18" t="n">
         <v>230.2083333333335</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2017/18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2017/18</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>82</v>
       </c>
       <c r="F19" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G19" t="n">
-        <v>42</v>
+        <v>447660</v>
       </c>
       <c r="H19" t="n">
         <v>447660</v>
       </c>
       <c r="I19" t="n">
-        <v>447660</v>
+        <v>1432512</v>
       </c>
       <c r="J19" t="n">
-        <v>1432512</v>
+        <v>3200</v>
       </c>
       <c r="K19" t="n">
         <v>3200</v>
       </c>
       <c r="L19" t="n">
-        <v>3200</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M19" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N19" t="n">
         <v>-283.7916666666665</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2018/19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2018/19</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>82</v>
       </c>
       <c r="F20" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G20" t="n">
-        <v>42</v>
+        <v>398000</v>
       </c>
       <c r="H20" t="n">
         <v>398000</v>
       </c>
       <c r="I20" t="n">
-        <v>398000</v>
+        <v>1671600</v>
       </c>
       <c r="J20" t="n">
-        <v>1671600</v>
+        <v>4200</v>
       </c>
       <c r="K20" t="n">
         <v>4200</v>
       </c>
       <c r="L20" t="n">
-        <v>4200</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M20" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N20" t="n">
         <v>716.2083333333335</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2019/20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2019/20</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>82</v>
       </c>
       <c r="F21" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>42</v>
+        <v>395000</v>
       </c>
       <c r="H21" t="n">
         <v>395000</v>
       </c>
       <c r="I21" t="n">
-        <v>395000</v>
+        <v>1580000</v>
       </c>
       <c r="J21" t="n">
-        <v>1580000</v>
+        <v>4000</v>
       </c>
       <c r="K21" t="n">
         <v>4000</v>
       </c>
       <c r="L21" t="n">
-        <v>4000</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M21" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N21" t="n">
         <v>516.2083333333335</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2020/21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2020/21</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>82</v>
       </c>
       <c r="F22" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
-        <v>42</v>
+        <v>382000</v>
       </c>
       <c r="H22" t="n">
         <v>382000</v>
       </c>
       <c r="I22" t="n">
-        <v>382000</v>
+        <v>1337000</v>
       </c>
       <c r="J22" t="n">
-        <v>1337000</v>
+        <v>3500</v>
       </c>
       <c r="K22" t="n">
         <v>3500</v>
       </c>
       <c r="L22" t="n">
-        <v>3500</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M22" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N22" t="n">
         <v>16.20833333333348</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2021/22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021/22</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>82</v>
       </c>
       <c r="F23" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
-        <v>42</v>
+        <v>355000</v>
       </c>
       <c r="H23" t="n">
         <v>355000</v>
       </c>
       <c r="I23" t="n">
-        <v>355000</v>
+        <v>1384500</v>
       </c>
       <c r="J23" t="n">
-        <v>1384500</v>
+        <v>3900</v>
       </c>
       <c r="K23" t="n">
         <v>3900</v>
       </c>
       <c r="L23" t="n">
-        <v>3900</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M23" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N23" t="n">
         <v>416.2083333333335</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2022/23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022/23</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>82</v>
       </c>
       <c r="F24" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G24" t="n">
-        <v>42</v>
+        <v>380000</v>
       </c>
       <c r="H24" t="n">
         <v>380000</v>
       </c>
       <c r="I24" t="n">
-        <v>380000</v>
+        <v>608000</v>
       </c>
       <c r="J24" t="n">
-        <v>608000</v>
+        <v>1600</v>
       </c>
       <c r="K24" t="n">
         <v>1600</v>
       </c>
       <c r="L24" t="n">
-        <v>1600</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M24" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N24" t="n">
         <v>-1883.791666666667</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Soja 1ra</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Soja 1ra</t>
+          <t>2023/24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2023/24</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>GENERAL LOPEZ</t>
-        </is>
+          <t>GENERAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>82</v>
       </c>
       <c r="F25" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G25" t="n">
-        <v>42</v>
+        <v>418397</v>
       </c>
       <c r="H25" t="n">
         <v>418397</v>
       </c>
       <c r="I25" t="n">
-        <v>418397</v>
+        <v>1589909</v>
       </c>
       <c r="J25" t="n">
-        <v>1589909</v>
+        <v>3800</v>
       </c>
       <c r="K25" t="n">
         <v>3800</v>
       </c>
       <c r="L25" t="n">
-        <v>3800</v>
+        <v>3483.791666666667</v>
       </c>
       <c r="M25" t="n">
-        <v>3483.791666666667</v>
-      </c>
-      <c r="N25" t="n">
         <v>316.2083333333335</v>
       </c>
     </row>
